--- a/1° Bimestre/Aula 0228/Exercicios/dicio_fornecedores.xlsx
+++ b/1° Bimestre/Aula 0228/Exercicios/dicio_fornecedores.xlsx
@@ -298,7 +298,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/1° Bimestre/Aula 0228/Exercicios/dicio_fornecedores.xlsx
+++ b/1° Bimestre/Aula 0228/Exercicios/dicio_fornecedores.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t xml:space="preserve">Tabela</t>
   </si>
@@ -70,16 +70,13 @@
     <t xml:space="preserve">CNPJ do fornecedor</t>
   </si>
   <si>
+    <t xml:space="preserve">QtdLote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantidade de tecidos no lote</t>
+  </si>
+  <si>
     <t xml:space="preserve">Int</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QtdLote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantidade de tecidos no lote</t>
   </si>
   <si>
     <t xml:space="preserve">Preco</t>
@@ -298,7 +295,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -452,13 +449,13 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -467,14 +464,14 @@
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -489,14 +486,14 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -511,20 +508,20 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
